--- a/simfin/params/historical_accounts.xlsx
+++ b/simfin/params/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmichaud/Dropbox (CEDIA)/simfin/Model/simfin/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74C5FE-4669-0047-8F18-338088496DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513FD639-B824-7D41-9252-11FDA11D0610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidé" sheetId="1" r:id="rId1"/>
@@ -1561,10 +1561,10 @@
   <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4749,7 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -7149,10 +7149,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7353,6 +7353,9 @@
         <f>Consolidé!O$39</f>
         <v>0.10877028714107366</v>
       </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/simfin/params/historical_accounts.xlsx
+++ b/simfin/params/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmichaud/Dropbox (CEDIA)/simfin/Model/simfin/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UQAM/Dropbox (CEDIA)/projets/simfin/Model/simfin/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513FD639-B824-7D41-9252-11FDA11D0610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F2CFCE-06A0-5B45-B49F-DC290243B19F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43020" yWindow="10420" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidé" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,9 @@
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Les totaux se trouvent dans au état consolisé mais par secteur de reddition de compte à l’Annexe 2 du Volume 1. Attention pour années ou revenus du fonds des générations est séparé dans une autre catégorie au état consolidé</t>
       </text>
     </comment>
@@ -144,7 +144,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -154,15 +154,61 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Le bond cette année-là s'explique par une hausse des revenus de taxes à la consommation (14 807 à 16 620), mais plus précisément des hausses de taxes des ventes de 11 577 à 13 203 qui résulte notamment de l’augmentation des revenus de taxe sur les ventes attribuable principalement aux hausses respectives d’un point de pourcentage du taux de la TVQ le 1er janvier 2011 et le
-1er janvier 2012;
-Il y a cette note en 2013:
-"Le crédit d’impôt pour la solidarité, d’une valeur de 1 703 millions de dollars au 31 mars 2013 (de 1 090 millions de dollars au 31 mars 2012), constitue un dégrèvement car il vise à rembourser certaines taxes aux ménages à faible revenu. Ce crédit d’impôt remboursable est présenté par conséquent en réduction des revenus des taxes à la consommation."
-Il faut donc ici soustraire le crédit et faire de même pour les années précédentes.</t>
+          <t xml:space="preserve">Le bond cette année-là s'explique par une hausse des revenus de taxes à la consommation (14 807 à 16 620), mais plus précisément des hausses de taxes des ventes de 11 577 à 13 203 qui résulte notamment de l’augmentation des revenus de taxe sur les ventes attribuable principalement aux hausses respectives d’un point de pourcentage du taux de la TVQ le 1er janvier 2011 et le
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1er janvier 2012;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Il y a cette note en 2013:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">"Le crédit d’impôt pour la solidarité, d’une valeur de 1 703 millions de dollars au 31 mars 2013 (de 1 090 millions de dollars au 31 mars 2012), constitue un dégrèvement car il vise à rembourser certaines taxes aux ménages à faible revenu. Ce crédit d’impôt remboursable est présenté par conséquent en réduction des revenus des taxes à la consommation."
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Il faut donc ici soustraire le crédit et faire de même pour les années précédentes.</t>
         </r>
       </text>
     </comment>
@@ -262,18 +308,18 @@
     </comment>
     <comment ref="A17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t xml:space="preserve">[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Information au poste 4 des états financiers (volume 1)
 </t>
       </text>
     </comment>
     <comment ref="A23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t>[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Le détail par poste se trouve en Annexe 6 du volume 1</t>
       </text>
     </comment>
@@ -305,9 +351,9 @@
     </comment>
     <comment ref="A34" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t>[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Section 12 des États-Financiers. Ne prendre que revenus de placement de portefeuille a part et le reste dans revenu général</t>
       </text>
     </comment>
@@ -347,9 +393,9 @@
     </comment>
     <comment ref="A45" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t>[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Poste 5, Loi sur l’équilibre budgétaire dans volume 1</t>
       </text>
     </comment>
@@ -471,41 +517,41 @@
     </comment>
     <comment ref="A53" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
-        <t xml:space="preserve">[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     On l’obtient par résidu du changement de la dette </t>
       </text>
     </comment>
     <comment ref="O54" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
-        <t xml:space="preserve">[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Ce montant n’est pas explicite. Mais il y a un footnote 2 sur la dette en dollar canadien de rachat de dettes canadiennes qui totalisent pas exactement 8G. Donc on met le 8G d’en haut et la différence se retrouve dans l’ajustement du flux sur la dette (résidu). </t>
       </text>
     </comment>
     <comment ref="A55" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
-        <t>[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Section 18 des états financiers consolidés, Vol 1</t>
       </text>
     </comment>
     <comment ref="A58" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
-        <t xml:space="preserve">[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Cette ligne devrait matcher ce qui est au blian de la dette brutte. </t>
       </text>
     </comment>
     <comment ref="A60" authorId="10" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
-        <t xml:space="preserve">[Commentaire lié à un fil de discussion]
-Votre version d’Excel vous permet de lire ce commentaire lié à un fil de discussion. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Section 6 du Volume 1 Analyse des principales tendances
 </t>
       </text>
@@ -697,7 +743,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>Revenus</t>
   </si>
@@ -1015,6 +1061,21 @@
   </si>
   <si>
     <t>reserve_balance_start</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>gdp_growth</t>
+  </si>
+  <si>
+    <t>pib</t>
+  </si>
+  <si>
+    <t>TCAC 2014-2019</t>
+  </si>
+  <si>
+    <t>TCAC 2010-2019</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1201,6 +1262,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,9 +1290,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1265,7 +1330,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1371,7 +1436,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1558,21 +1623,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1621,23 +1687,29 @@
       <c r="Q1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1701,7 +1773,7 @@
         <v>3.588228141868699E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1759,14 +1831,14 @@
         <v>4.6227442145969633E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="14"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1902,7 @@
         <v>3.4684033347317733E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -1881,7 +1953,7 @@
         <v>2.7764049650604417E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1932,7 +2004,7 @@
         <v>1.0340295245200304E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1971,7 +2043,7 @@
         <v>2.6138442888195224E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2031,7 +2103,7 @@
         <v>4.4859504705654363E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2154,7 @@
         <v>8.5225739249854549E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -2142,7 +2214,7 @@
         <v>1.5302950277515492E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2202,7 +2274,7 @@
         <v>9.7953763245276049E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -2267,12 +2339,12 @@
         <v>4.3526657117914924E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -2323,7 +2395,7 @@
         <v>7.1198952413465522E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2446,7 @@
         <v>5.3947092194047475E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2511,7 @@
         <v>3.7756929293422115E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
@@ -2504,7 +2576,7 @@
         <v>5.790466875908562E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -2569,12 +2641,12 @@
         <v>4.6210178302625859E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -2631,8 +2703,16 @@
         <f t="shared" si="0"/>
         <v>4.9776596919839156E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="R24">
+        <f>(O24/J24)^(1/5)-1</f>
+        <v>3.1242430212510719E-2</v>
+      </c>
+      <c r="S24">
+        <f>(O24/F24)^(1/9)-1</f>
+        <v>3.6827807537688217E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -2686,11 +2766,19 @@
         <v>23887</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>4.7054232516313688E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+        <f>((L25/B25)^(1/10))-1</f>
+        <v>4.7995682744315982E-2</v>
+      </c>
+      <c r="R25">
+        <f>(O25/J25)^(1/5)-1</f>
+        <v>2.985146166039887E-2</v>
+      </c>
+      <c r="S25">
+        <f>(O25/F25)^(1/9)-1</f>
+        <v>3.2777618898309768E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -2743,12 +2831,15 @@
       <c r="O26" s="14">
         <v>14730</v>
       </c>
+      <c r="P26" t="s">
+        <v>108</v>
+      </c>
       <c r="Q26">
         <f t="shared" si="0"/>
         <v>4.913271867281499E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2897,7 @@
         <v>2.1152883330583405E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -2857,7 +2948,7 @@
         <v>2.6004125692680846E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -2922,7 +3013,7 @@
         <v>4.3512536571207461E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
@@ -2973,7 +3064,7 @@
         <v>1.1069251408674763E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>61</v>
       </c>
@@ -3024,7 +3115,7 @@
         <v>-3.0569258514889674E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>24</v>
       </c>
@@ -4747,10 +4838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7136,6 +7227,117 @@
         <f>Consolidé!O67</f>
         <v>199098</v>
       </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40">
+        <v>291512</v>
+      </c>
+      <c r="C40">
+        <v>306946</v>
+      </c>
+      <c r="D40">
+        <v>315382</v>
+      </c>
+      <c r="E40">
+        <v>315540</v>
+      </c>
+      <c r="F40">
+        <v>329129</v>
+      </c>
+      <c r="G40">
+        <v>345763</v>
+      </c>
+      <c r="H40">
+        <v>355253</v>
+      </c>
+      <c r="I40">
+        <v>365802</v>
+      </c>
+      <c r="J40">
+        <v>376878</v>
+      </c>
+      <c r="K40">
+        <v>387667</v>
+      </c>
+      <c r="L40">
+        <v>399225</v>
+      </c>
+      <c r="M40">
+        <v>419224</v>
+      </c>
+      <c r="N40">
+        <v>439375</v>
+      </c>
+      <c r="O40">
+        <v>458733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41">
+        <v>1.9809453641291226E-2</v>
+      </c>
+      <c r="C41">
+        <v>3.67308256582074E-2</v>
+      </c>
+      <c r="D41">
+        <v>6.514607302461119E-3</v>
+      </c>
+      <c r="E41">
+        <v>-5.6749522096309268E-3</v>
+      </c>
+      <c r="F41">
+        <v>3.0345540049810257E-2</v>
+      </c>
+      <c r="G41">
+        <v>1.9458405196099399E-2</v>
+      </c>
+      <c r="H41">
+        <v>6.1831652554261074E-3</v>
+      </c>
+      <c r="I41">
+        <v>2.2079499808879667E-2</v>
+      </c>
+      <c r="J41">
+        <v>1.6085208994881282E-2</v>
+      </c>
+      <c r="K41">
+        <v>1.7903840906094884E-2</v>
+      </c>
+      <c r="L41">
+        <v>2.243500557368178E-2</v>
+      </c>
+      <c r="M41">
+        <v>3.9337088343101248E-2</v>
+      </c>
+      <c r="N41">
+        <v>3.1005819611783302E-2</v>
+      </c>
+      <c r="O41">
+        <v>2.2653658094013096E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7151,7 +7353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/simfin/params/historical_accounts.xlsx
+++ b/simfin/params/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Dropbox (CEDIA)/simfin/Model/simfin/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BC9737-A4B7-FB4A-A6F6-82A9C40BC97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA962078-87A2-684B-AFEB-B8D1E9AD9548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="26560" windowHeight="16260" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="26560" windowHeight="16160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidé" sheetId="1" r:id="rId1"/>
@@ -2876,11 +2876,11 @@
       <sheetName val="dette brute budget"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="79">
           <cell r="I79">
@@ -2923,13 +2923,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6602,7 +6602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28669AAF-4F2E-0747-BEAD-49A29551A5F5}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -9935,8 +9935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9964,10 +9964,7 @@
         <f>Consolidé!B$31</f>
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="C2" s="18">
-        <f>Consolidé!B$39</f>
-        <v>0</v>
-      </c>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -9977,10 +9974,7 @@
         <f>Consolidé!C$31</f>
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="C3" s="18">
-        <f>Consolidé!C$39</f>
-        <v>0</v>
-      </c>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">

--- a/simfin/params/historical_accounts.xlsx
+++ b/simfin/params/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Dropbox (CEDIA)/simfin/Model/simfin/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA962078-87A2-684B-AFEB-B8D1E9AD9548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2EECDD-B795-8B49-A62D-2A00C6E5E2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="26560" windowHeight="16160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="26560" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidé" sheetId="1" r:id="rId1"/>
@@ -1577,7 +1577,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1694,6 +1694,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -2945,7 +2946,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2983,7 +2984,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3089,7 +3090,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3292,13 +3293,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3307,7 +3308,7 @@
     <col min="16" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -3357,19 +3358,19 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="P2" s="55"/>
     </row>
-    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="59"/>
     </row>
-    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3377,8 +3378,16 @@
         <f>33502/(33502+8712+6593+1556+22118+4512+11160)*87831</f>
         <v>33379.625900423125</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <f>O16/O22</f>
+        <v>0.79851149495407248</v>
+      </c>
+      <c r="R4">
+        <f>P16/P22</f>
+        <v>0.7859695092901382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3441,8 +3450,12 @@
         <f>O5/(O$5+O$6)*P$4</f>
         <v>28581.692073361392</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <f>O21/O22</f>
+        <v>0.20148850504592752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3500,7 +3513,7 @@
         <v>4797.9338270617318</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3511,7 +3524,7 @@
         <v>8680.1773280546313</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -3575,7 +3588,7 @@
         <v>7048.6858690300978</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -3626,7 +3639,7 @@
         <v>1631.4914590245337</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="67" t="s">
         <v>26</v>
       </c>
@@ -3677,7 +3690,7 @@
         <v>6568.9174843737592</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -3716,7 +3729,7 @@
         <v>1550.3163363697208</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="67" t="s">
         <v>5</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>22037.208693975248</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="67" t="s">
         <v>6</v>
       </c>
@@ -3827,7 +3840,7 @@
         <v>4495.5188365682388</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -3886,7 +3899,7 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3946,7 +3959,7 @@
         <v>11119.235420235274</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -4011,7 +4024,7 @@
         <v>92386</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>5.4890365782541375E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -4075,7 +4088,7 @@
         <v>13155.898792684386</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -4126,7 +4139,7 @@
         <v>6478.7087699725071</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -4191,7 +4204,7 @@
         <v>5523.3924373431091</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
@@ -4255,7 +4268,7 @@
         <v>25158</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -4319,13 +4332,13 @@
         <v>117544</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P23" s="55"/>
     </row>
-    <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -4382,8 +4395,9 @@
         <f>(44124+'[1]Dépenses COVID'!$B$47)/(44124+'[1]Dépenses COVID'!B47+25517+'[1]Dépenses COVID'!B48+16205+'[1]Dépenses COVID'!B49+10899+'[1]Dépenses COVID'!B50+8217+'[1]Dépenses COVID'!B51)*P$29</f>
         <v>43652.254206381862</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="68"/>
+    </row>
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -4440,8 +4454,9 @@
         <f>(25517+'[1]Dépenses COVID'!B48)/(44124+'[1]Dépenses COVID'!B47+25517+'[1]Dépenses COVID'!B48+16205+'[1]Dépenses COVID'!B49+10899+'[1]Dépenses COVID'!B50+8217+'[1]Dépenses COVID'!B51)*P$29</f>
         <v>25208.822479140319</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q25" s="68"/>
+    </row>
+    <row r="26" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -4498,8 +4513,9 @@
         <f>(16205+'[1]Dépenses COVID'!B49)/(44124+'[1]Dépenses COVID'!B47+25517+'[1]Dépenses COVID'!B48+16205+'[1]Dépenses COVID'!B49+10899+'[1]Dépenses COVID'!B50+8217+'[1]Dépenses COVID'!B51)*P$29</f>
         <v>15981.784347802952</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="68"/>
+    </row>
+    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -4556,8 +4572,9 @@
         <f>(10899+'[1]Dépenses COVID'!B50)/(44124+'[1]Dépenses COVID'!B47+25517+'[1]Dépenses COVID'!B48+16205+'[1]Dépenses COVID'!B49+10899+'[1]Dépenses COVID'!B50+8217+'[1]Dépenses COVID'!B51)*P$29</f>
         <v>10782.421591255705</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="68"/>
+    </row>
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -4607,8 +4624,9 @@
         <f>(8217+'[1]Dépenses COVID'!B51)/(44124+'[1]Dépenses COVID'!B47+25517+'[1]Dépenses COVID'!B48+16205+'[1]Dépenses COVID'!B49+10899+'[1]Dépenses COVID'!B50+8217+'[1]Dépenses COVID'!B51)*P$29</f>
         <v>8098.7173754191663</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="Q28" s="68"/>
+    </row>
+    <row r="29" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
@@ -4672,7 +4690,7 @@
         <v>103724</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
@@ -4722,7 +4740,7 @@
         <v>7648</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>61</v>
       </c>
@@ -4773,7 +4791,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>24</v>
       </c>
@@ -9933,10 +9951,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9945,7 +9963,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -9956,7 +9974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -9966,7 +9984,7 @@
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -9976,7 +9994,7 @@
       </c>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -9989,7 +10007,7 @@
         <v>6.1643835616438353E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -10002,7 +10020,7 @@
         <v>-4.0551500405515001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -10015,7 +10033,7 @@
         <v>3.0737704918032786E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -10028,7 +10046,7 @@
         <v>3.5113933507657825E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -10041,7 +10059,7 @@
         <v>4.3351760256037243E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -10054,7 +10072,7 @@
         <v>5.4243628711713815E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -10066,8 +10084,9 @@
         <f>Consolidé!J$39</f>
         <v>6.4719358533791529E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -10080,7 +10099,7 @@
         <v>5.5663544795900334E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -10093,7 +10112,7 @@
         <v>4.295185932545402E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -10106,7 +10125,7 @@
         <v>4.9518892278807791E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -10119,7 +10138,7 @@
         <v>3.9152332984890244E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -10132,7 +10151,7 @@
         <v>0.10877028714107366</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>

--- a/simfin/params/historical_accounts.xlsx
+++ b/simfin/params/historical_accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Documents/SimFin/Model/simfin/params/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilet\Dropbox\simfin\Model\simfin\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC820F-22FD-BA4F-9C7C-7C087B3BE819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68062DFD-1B1D-4D30-A934-D421277BFF62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="760" windowWidth="40300" windowHeight="21180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
@@ -289,12 +289,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -310,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -341,6 +347,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,14 +367,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -404,7 +408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -510,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,14 +666,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +725,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -765,11 +771,11 @@
       <c r="O2">
         <v>27206</v>
       </c>
-      <c r="P2" s="4">
-        <v>28581.692073361392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>28841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -815,11 +821,11 @@
       <c r="O3">
         <v>4567</v>
       </c>
-      <c r="P3" s="4">
-        <v>4797.9338270617318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>4973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -865,11 +871,11 @@
       <c r="O4">
         <v>7457</v>
       </c>
-      <c r="P4" s="4">
-        <v>7048.6858690300978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>6605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -915,11 +921,11 @@
       <c r="O5">
         <v>1726</v>
       </c>
-      <c r="P5" s="4">
-        <v>1631.4914590245337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -965,11 +971,11 @@
       <c r="O6">
         <v>6359</v>
       </c>
-      <c r="P6" s="4">
-        <v>6568.9174843737592</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>6522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1015,11 +1021,11 @@
       <c r="O7">
         <v>1853</v>
       </c>
-      <c r="P7" s="4">
-        <v>1550.3163363697208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1065,11 +1071,11 @@
       <c r="O8">
         <v>21001</v>
       </c>
-      <c r="P8" s="4">
-        <v>22037.208693975248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>21348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1115,11 +1121,11 @@
       <c r="O9">
         <v>4361</v>
       </c>
-      <c r="P9" s="4">
-        <v>4495.5188365682388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1165,11 +1171,11 @@
       <c r="O10">
         <v>5548</v>
       </c>
-      <c r="P10" s="4">
-        <v>4555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1215,11 +1221,11 @@
       <c r="O11">
         <v>11548</v>
       </c>
-      <c r="P11" s="4">
-        <v>11119.235420235274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1265,11 +1271,11 @@
       <c r="O12">
         <v>11732</v>
       </c>
-      <c r="P12" s="4">
-        <v>13155.898792684386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>13124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1315,11 +1321,11 @@
       <c r="O13">
         <v>6306</v>
       </c>
-      <c r="P13" s="4">
-        <v>6478.7087699725071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1365,11 +1371,11 @@
       <c r="O14">
         <v>5082</v>
       </c>
-      <c r="P14" s="4">
-        <v>5523.3924373431091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>5487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1415,11 +1421,11 @@
       <c r="O15">
         <v>41522</v>
       </c>
-      <c r="P15" s="4">
-        <v>43652.254206381862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>43699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1465,11 +1471,11 @@
       <c r="O16">
         <v>23887</v>
       </c>
-      <c r="P16" s="4">
-        <v>25208.822479140319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>25267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1515,11 +1521,11 @@
       <c r="O17">
         <v>14730</v>
       </c>
-      <c r="P17" s="4">
-        <v>15981.784347802952</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>17293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1565,11 +1571,11 @@
       <c r="O18">
         <v>10095</v>
       </c>
-      <c r="P18" s="4">
-        <v>10782.421591255705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>10926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1615,11 +1621,11 @@
       <c r="O19">
         <v>7510</v>
       </c>
-      <c r="P19" s="4">
-        <v>8098.7173754191663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>9503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1665,11 +1671,11 @@
       <c r="O20">
         <v>8722</v>
       </c>
-      <c r="P20" s="4">
-        <v>7648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>7676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>8293</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1766,10 +1772,10 @@
         <v>2083</v>
       </c>
       <c r="P22">
-        <v>2151.7067983289021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1816,10 +1822,10 @@
         <v>1394</v>
       </c>
       <c r="P23">
-        <v>454.29320167109762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>8899</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1965,11 +1971,11 @@
       <c r="O26">
         <v>7174</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26">
         <v>11977</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2019,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2065,11 +2071,11 @@
       <c r="O28">
         <v>4803</v>
       </c>
-      <c r="P28" s="4">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2116,10 +2122,10 @@
         <v>4803</v>
       </c>
       <c r="P29">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2165,11 +2171,11 @@
       <c r="O30">
         <v>11977</v>
       </c>
-      <c r="P30" s="4">
-        <v>14940</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>11981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>189029</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2312,11 +2318,11 @@
       <c r="O33">
         <v>189029</v>
       </c>
-      <c r="P33" s="4">
-        <v>193229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>192975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2363,10 +2369,10 @@
         <v>6159</v>
       </c>
       <c r="P34">
-        <v>6422.757080654952</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>7988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2412,11 +2418,11 @@
       <c r="O35">
         <v>199098</v>
       </c>
-      <c r="P35" s="4">
-        <v>198916</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>198792</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2462,11 +2468,11 @@
       <c r="O36" s="4">
         <v>439509.93377483444</v>
       </c>
-      <c r="P36" s="4">
-        <v>458331.79723502306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P36" s="18">
+        <v>458046.08294930874</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2513,10 +2519,10 @@
         <v>3.1977506173939678E-2</v>
       </c>
       <c r="P37">
-        <v>2.2377117601684784E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3.3542115050475822E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2552,11 +2558,11 @@
       <c r="O38" s="3">
         <v>18362</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38">
         <v>13905.776600000012</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -2602,11 +2608,11 @@
       <c r="O39" s="4">
         <v>1291</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39">
         <v>901</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2653,10 +2659,10 @@
         <v>71316</v>
       </c>
       <c r="P40">
-        <v>74450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>75053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2702,11 +2708,11 @@
       <c r="O41">
         <v>27334</v>
       </c>
-      <c r="P41">
-        <v>29547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="19">
+        <v>28533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2750,10 +2756,10 @@
         <v>3002</v>
       </c>
       <c r="P42">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>2047</v>
       </c>
       <c r="P43">
-        <v>2213</v>
+        <v>1199</v>
       </c>
     </row>
   </sheetData>
@@ -2816,13 +2822,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -2842,7 +2848,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -2851,7 +2857,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>6.1643835616438353E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>-4.0551500405515001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -2884,7 +2890,7 @@
         <v>3.0737704918032786E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>3.5113933507657825E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>4.3351760256037243E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>5.4243628711713815E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -2929,7 +2935,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -2940,7 +2946,7 @@
         <v>5.5663544795900334E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>4.295185932545402E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>4.9518892278807791E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>3.9152332984890244E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>0.10877028714107366</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -2995,7 +3001,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
     </row>
   </sheetData>
@@ -3014,9 +3020,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2024</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2025</v>
       </c>
@@ -3112,12 +3118,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>110835</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>2644.0913</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>7038.0225</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -3307,7 +3313,7 @@
         <v>7165.1682000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>113421.94560000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>-5179</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>94104.262499999997</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>1564.4084999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>1797.3149999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -3563,13 +3569,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="78.5" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
@@ -3590,7 +3596,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>61</v>
       </c>
@@ -3603,7 +3609,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
@@ -3616,7 +3622,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>53</v>
       </c>
@@ -3629,7 +3635,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
@@ -3638,7 +3644,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3647,7 +3653,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3656,7 +3662,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3665,7 +3671,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3674,7 +3680,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3683,7 +3689,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3692,7 +3698,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -3701,7 +3707,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3710,7 +3716,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -3719,7 +3725,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="13"/>
@@ -3728,7 +3734,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3737,7 +3743,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3746,7 +3752,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3755,7 +3761,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="14"/>
       <c r="C20" s="13"/>
@@ -3764,7 +3770,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="14"/>
       <c r="C21" s="13"/>
@@ -3773,13 +3779,13 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3791,12 +3797,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -3820,7 +3826,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -3868,7 +3874,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -3916,7 +3922,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -3924,7 +3930,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -3940,7 +3946,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2023</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2024</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2025</v>
       </c>
@@ -3975,13 +3981,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3995,7 +4001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>6.8155806925309093E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -4023,7 +4029,7 @@
         <v>7.8852288558218415E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>7.6978718363801485E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>9.714309874944432E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -4065,7 +4071,7 @@
         <v>9.252744589238358E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>9.0224926425935426E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>8.9337315566447133E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2026</v>
       </c>

--- a/simfin/params/historical_accounts.xlsx
+++ b/simfin/params/historical_accounts.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilet\Dropbox\simfin\Model\simfin\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Dropbox (CEDIA)/simfin/Model/simfin/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68062DFD-1B1D-4D30-A934-D421277BFF62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE99E06E-EBCE-6F48-87AC-DAF0BBB79487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="2" r:id="rId1"/>
     <sheet name="Returns" sheetId="3" r:id="rId2"/>
     <sheet name="GenFundContrib" sheetId="4" r:id="rId3"/>
     <sheet name="pension_balance" sheetId="5" r:id="rId4"/>
-    <sheet name="pension_hypo" sheetId="10" r:id="rId5"/>
-    <sheet name="pension_debt_service" sheetId="6" r:id="rId6"/>
+    <sheet name="pension_debt_service" sheetId="6" r:id="rId5"/>
+    <sheet name="pension_hypo" sheetId="10" r:id="rId6"/>
     <sheet name="investment" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>account</t>
   </si>
@@ -101,9 +101,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>debt_interest</t>
-  </si>
-  <si>
     <t>genfund_return</t>
   </si>
   <si>
@@ -234,16 +231,23 @@
   </si>
   <si>
     <t>pension - assets future social advantages</t>
+  </si>
+  <si>
+    <t>covid_spending</t>
+  </si>
+  <si>
+    <t>covid_transfers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ _$"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,19 +292,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -312,11 +317,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -338,20 +344,23 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0AB5793C-643E-644D-9AF8-0296C268D208}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{81E5FFE1-5EDD-5547-B1FD-88ED00CFC7C8}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,10 +376,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,18 +677,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P43"/>
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,10 +736,13 @@
       <c r="P1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>17204</v>
@@ -771,13 +786,16 @@
       <c r="O2">
         <v>27206</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>28841</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" s="4">
+        <v>30036.808895723665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2538</v>
@@ -821,13 +839,16 @@
       <c r="O3">
         <v>4567</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>4973</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" s="4">
+        <v>5179.1911042763359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>4787</v>
@@ -871,13 +892,16 @@
       <c r="O4">
         <v>7457</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>6605</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" s="4">
+        <v>6127.6780527477631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1209</v>
@@ -921,11 +945,14 @@
       <c r="O5">
         <v>1726</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>2002</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" s="4">
+        <v>1857.3219472522364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -971,11 +998,14 @@
       <c r="O6">
         <v>6359</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>6522</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" s="4">
+        <v>6455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1021,11 +1051,14 @@
       <c r="O7">
         <v>1853</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>1539</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" s="4">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1071,11 +1104,14 @@
       <c r="O8">
         <v>21001</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>21348</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" s="4">
+        <v>20322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1121,11 +1157,14 @@
       <c r="O9">
         <v>4361</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>4535</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9" s="4">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1171,13 +1210,16 @@
       <c r="O10">
         <v>5548</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>4419</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" s="4">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>3427</v>
@@ -1221,11 +1263,14 @@
       <c r="O11">
         <v>11548</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="4">
         <v>10962</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" s="4">
+        <v>10518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1271,11 +1316,14 @@
       <c r="O12">
         <v>11732</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>13124</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" s="4">
+        <v>13253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1321,11 +1369,14 @@
       <c r="O13">
         <v>6306</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="4">
         <v>6617</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" s="4">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1371,11 +1422,14 @@
       <c r="O14">
         <v>5082</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="4">
         <v>5487</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" s="4">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1421,11 +1475,14 @@
       <c r="O15">
         <v>41522</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="4">
         <v>43699</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" s="4">
+        <v>46409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1471,11 +1528,14 @@
       <c r="O16">
         <v>23887</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="4">
         <v>25267</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" s="4">
+        <v>26619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1521,11 +1581,14 @@
       <c r="O17">
         <v>14730</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="4">
         <v>17293</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" s="4">
+        <v>15391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1571,11 +1634,14 @@
       <c r="O18">
         <v>10095</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
         <v>10926</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" s="4">
+        <v>11246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1621,11 +1687,14 @@
       <c r="O19">
         <v>7510</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>9503</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19" s="4">
+        <v>11156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1671,13 +1740,16 @@
       <c r="O20">
         <v>8722</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>7676</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20" s="4">
+        <v>7665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1721,13 +1793,16 @@
       <c r="O21">
         <v>12816</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <v>8293</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21" s="4">
+        <v>8899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1774,10 +1849,13 @@
       <c r="P22">
         <v>2142</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1824,10 +1902,13 @@
       <c r="P23">
         <v>464</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1874,10 +1955,13 @@
       <c r="P24">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1924,10 +2008,13 @@
       <c r="P25">
         <v>8899</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25">
+        <v>11913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1971,13 +2058,16 @@
       <c r="O26">
         <v>7174</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="4">
         <v>11977</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26" s="4">
+        <v>11981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2024,8 +2114,11 @@
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2071,13 +2164,16 @@
       <c r="O28">
         <v>4803</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28" s="4">
+        <v>-4358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2124,10 +2220,13 @@
       <c r="P29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>950</v>
@@ -2171,13 +2270,16 @@
       <c r="O30">
         <v>11977</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="4">
         <v>11981</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30" s="4">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>88582</v>
@@ -2221,10 +2323,13 @@
       <c r="P31">
         <v>189029</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q31">
+        <v>192975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2271,10 +2376,13 @@
       <c r="P32">
         <v>2000</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>88582</v>
@@ -2318,11 +2426,14 @@
       <c r="O33">
         <v>189029</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="4">
         <v>192975</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q33" s="4">
+        <v>218583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2368,11 +2479,14 @@
       <c r="O34">
         <v>6159</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="4">
         <v>7988</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34" s="4">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2418,13 +2532,16 @@
       <c r="O35">
         <v>199098</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="4">
         <v>198792</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q35" s="4">
+        <v>218957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4">
         <v>271844.35797665367</v>
@@ -2468,63 +2585,69 @@
       <c r="O36" s="4">
         <v>439509.93377483444</v>
       </c>
-      <c r="P36" s="18">
-        <v>458046.08294930874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P36" s="13">
+        <v>460166.66666666669</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>442337.37373737374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>1.7470425587845537E-2</v>
+        <v>1.7470425587845506E-2</v>
       </c>
       <c r="C37">
-        <v>2.2240445887411885E-2</v>
+        <v>2.224044588741185E-2</v>
       </c>
       <c r="D37">
-        <v>2.7645429696343947E-2</v>
+        <v>2.7645429696344061E-2</v>
       </c>
       <c r="E37">
-        <v>1.5731650564955828E-2</v>
+        <v>1.5731650564955884E-2</v>
       </c>
       <c r="F37">
-        <v>-9.0681929854638695E-3</v>
+        <v>-9.0681929854639683E-3</v>
       </c>
       <c r="G37">
-        <v>1.5434634425312373E-2</v>
+        <v>1.5434634425312486E-2</v>
       </c>
       <c r="H37">
-        <v>3.5475918059130328E-2</v>
+        <v>3.5475918059130175E-2</v>
       </c>
       <c r="I37">
-        <v>6.3235111863483934E-2</v>
+        <v>6.3235111863484031E-2</v>
       </c>
       <c r="J37">
-        <v>5.5766503986330151E-4</v>
+        <v>5.5766503986332113E-4</v>
       </c>
       <c r="K37">
-        <v>3.5690635224650278E-3</v>
+        <v>3.5690635224650976E-3</v>
       </c>
       <c r="L37">
-        <v>1.3783670479661931E-2</v>
+        <v>1.3783670479661673E-2</v>
       </c>
       <c r="M37">
-        <v>2.6711052749539176E-2</v>
+        <v>2.671105274953926E-2</v>
       </c>
       <c r="N37">
-        <v>4.6643058438223646E-2</v>
+        <v>4.6643058438223653E-2</v>
       </c>
       <c r="O37">
-        <v>3.1977506173939678E-2</v>
-      </c>
-      <c r="P37">
-        <v>3.3542115050475822E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.197750617393974E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>3.8327032249783712E-2</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>-5.666859107445936E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2558,13 +2681,16 @@
       <c r="O38" s="3">
         <v>18362</v>
       </c>
-      <c r="P38">
-        <v>13905.776600000012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P38" s="13">
+        <v>14716</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>12287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4">
         <v>2831</v>
@@ -2608,161 +2734,173 @@
       <c r="O39" s="4">
         <v>1291</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="21">
         <v>901</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q39" s="21">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>69073</v>
+      </c>
+      <c r="O40">
+        <v>72110</v>
+      </c>
+      <c r="P40" s="1">
+        <v>76107</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>80326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>68314</v>
-      </c>
-      <c r="O40">
-        <v>71316</v>
-      </c>
-      <c r="P40">
-        <v>75053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>24528</v>
+      </c>
+      <c r="O41">
+        <v>26540</v>
+      </c>
+      <c r="P41" s="13">
+        <v>27479</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>28451.222343632253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>25287</v>
-      </c>
-      <c r="O41">
-        <v>27334</v>
-      </c>
-      <c r="P41" s="19">
-        <v>28533</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>69073</v>
+      </c>
+      <c r="O42">
+        <v>3037</v>
+      </c>
+      <c r="P42" s="1">
+        <v>3997</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>68314</v>
-      </c>
-      <c r="O42">
-        <v>3002</v>
-      </c>
-      <c r="P42">
-        <v>3737</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
       <c r="C43">
         <v>0</v>
       </c>
@@ -2797,13 +2935,32 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>25287</v>
+        <v>24528</v>
       </c>
       <c r="O43">
-        <v>2047</v>
-      </c>
-      <c r="P43">
-        <v>1199</v>
+        <v>2012</v>
+      </c>
+      <c r="P43" s="1">
+        <v>939</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>972.22234363225289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q44">
+        <v>11920</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q45">
+        <v>4039</v>
       </c>
     </row>
   </sheetData>
@@ -2818,191 +2975,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F18"/>
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2006</v>
       </c>
-      <c r="B2">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2007</v>
       </c>
-      <c r="B3">
-        <v>5.4699999999999999E-2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2008</v>
       </c>
-      <c r="B4">
-        <v>5.04E-2</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="2">
         <v>6.1643835616438353E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2009</v>
       </c>
-      <c r="B5">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="2">
         <v>-4.0551500405515001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2010</v>
       </c>
-      <c r="B6">
-        <v>3.9E-2</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="2">
         <v>3.0737704918032786E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2011</v>
       </c>
-      <c r="B7">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="2">
         <v>3.5113933507657825E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2012</v>
       </c>
-      <c r="B8">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2">
         <v>4.3351760256037243E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2013</v>
       </c>
-      <c r="B9">
-        <v>0.04</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="2">
         <v>5.4243628711713815E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2014</v>
       </c>
-      <c r="B10">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="2">
         <v>6.4719358533791529E-2</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2015</v>
       </c>
-      <c r="B11">
-        <v>3.73E-2</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="2">
         <v>5.5663544795900334E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
-      <c r="B12">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="2">
         <v>4.295185932545402E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2017</v>
       </c>
-      <c r="B13">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="2">
         <v>4.9518892278807791E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
-      <c r="B14">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="2">
         <v>3.9152332984890244E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
-      <c r="B15">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="2">
         <v>0.10877028714107366</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
       <c r="B16">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="C16">
-        <v>3.5499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="2"/>
+        <v>5.5950801881104545E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17">
+        <v>7.7424429711203502E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3016,21 +3133,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -3038,7 +3158,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -3046,7 +3166,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3054,52 +3174,56 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2022</v>
       </c>
       <c r="B7">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <f>3080-605</f>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2023</v>
       </c>
       <c r="B8">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <f>3208-753</f>
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2024</v>
       </c>
       <c r="B9">
-        <v>2775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <f>3777-914</f>
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2025</v>
       </c>
       <c r="B10">
-        <v>2918</v>
+        <f>4109-1096</f>
+        <v>3013</v>
       </c>
     </row>
   </sheetData>
@@ -3114,18 +3238,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CD60EE-34FC-8C41-ACE3-9D290C0CC597}">
-  <dimension ref="A1:P12"/>
+  <sheetPr codeName="Feuil8"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1">
         <v>2006</v>
@@ -3172,45 +3297,51 @@
       <c r="P1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4">
+        <v>77058</v>
+      </c>
+      <c r="H2" s="4">
+        <v>80051</v>
+      </c>
+      <c r="I2" s="4">
+        <v>82477</v>
+      </c>
+      <c r="J2" s="4">
+        <v>87629</v>
+      </c>
+      <c r="K2" s="4">
+        <v>91859</v>
+      </c>
+      <c r="L2" s="4">
+        <v>94659</v>
+      </c>
+      <c r="M2" s="4">
+        <v>97757</v>
+      </c>
+      <c r="N2" s="4">
+        <v>99666</v>
+      </c>
+      <c r="O2" s="4">
+        <v>106993</v>
+      </c>
+      <c r="P2" s="4">
+        <v>110835</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>113750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>50</v>
-      </c>
-      <c r="G2">
-        <v>77058</v>
-      </c>
-      <c r="H2">
-        <v>80051</v>
-      </c>
-      <c r="I2">
-        <v>82477</v>
-      </c>
-      <c r="J2">
-        <v>87629</v>
-      </c>
-      <c r="K2">
-        <v>91859</v>
-      </c>
-      <c r="L2">
-        <v>94659</v>
-      </c>
-      <c r="M2">
-        <v>97757</v>
-      </c>
-      <c r="N2">
-        <v>99666</v>
-      </c>
-      <c r="O2">
-        <v>106993</v>
-      </c>
-      <c r="P2">
-        <v>110835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>51</v>
       </c>
       <c r="G3">
         <v>1898</v>
@@ -3240,12 +3371,15 @@
         <v>2579</v>
       </c>
       <c r="P3">
-        <v>2644.0913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2677</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>2680.1160884986675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>4928</v>
@@ -3275,12 +3409,15 @@
         <v>6596</v>
       </c>
       <c r="P4">
-        <v>7038.0225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6875</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>7058.1694783675803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>4561</v>
@@ -3310,12 +3447,15 @@
         <v>6948</v>
       </c>
       <c r="P5">
-        <v>7165.1682000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6814</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>6862.1384178488215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>728</v>
@@ -3345,47 +3485,53 @@
         <v>1615</v>
       </c>
       <c r="P6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>987.23898813960045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7">
+        <v>61</v>
+      </c>
+      <c r="G7" s="4">
         <v>80051</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>82477</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>87629</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>91859</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>94659</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>97757</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>99666</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>106993</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>110835</v>
       </c>
-      <c r="P7">
-        <v>113421.94560000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P7" s="4">
+        <v>113750</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>115015.66138704018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>-4984</v>
@@ -3415,148 +3561,168 @@
         <v>-5179</v>
       </c>
       <c r="P8">
-        <v>-5179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-4440</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>-4425.3751573773261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9">
+        <v>57</v>
+      </c>
+      <c r="G9" s="14">
         <v>46017</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="14">
         <v>49210</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="14">
         <v>52432</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="14">
         <v>55570</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="14">
         <v>59675</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="14">
         <v>64550</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="14">
         <v>69685</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="14">
         <v>80733</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="14">
         <v>87075</v>
       </c>
-      <c r="P9">
-        <v>94104.262499999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P9" s="14">
+        <v>94346</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>98045.561479837721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1222</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1243</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1262</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1422</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1488</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1475</v>
+      </c>
+      <c r="M10" s="14">
+        <v>1479</v>
+      </c>
+      <c r="N10" s="14">
+        <v>1480</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1471</v>
+      </c>
+      <c r="P10" s="14">
+        <v>1450</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>1506.8584163161629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1147</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1196</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1243</v>
+      </c>
+      <c r="J11" s="14">
+        <v>1287</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1357</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1428</v>
+      </c>
+      <c r="M11" s="14">
+        <v>1509</v>
+      </c>
+      <c r="N11" s="14">
+        <v>1598</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1690</v>
+      </c>
+      <c r="P11" s="14">
+        <v>1698</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>1764.5831661412722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="G10">
-        <v>1222</v>
-      </c>
-      <c r="H10">
-        <v>1243</v>
-      </c>
-      <c r="I10">
-        <v>1262</v>
-      </c>
-      <c r="J10">
-        <v>1422</v>
-      </c>
-      <c r="K10">
-        <v>1488</v>
-      </c>
-      <c r="L10">
-        <v>1475</v>
-      </c>
-      <c r="M10">
-        <v>1479</v>
-      </c>
-      <c r="N10">
-        <v>1480</v>
-      </c>
-      <c r="O10">
-        <v>1471</v>
-      </c>
-      <c r="P10">
-        <v>1564.4084999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11">
-        <v>1147</v>
-      </c>
-      <c r="H11">
-        <v>1196</v>
-      </c>
-      <c r="I11">
-        <v>1243</v>
-      </c>
-      <c r="J11">
-        <v>1287</v>
-      </c>
-      <c r="K11">
-        <v>1357</v>
-      </c>
-      <c r="L11">
-        <v>1428</v>
-      </c>
-      <c r="M11">
-        <v>1509</v>
-      </c>
-      <c r="N11">
-        <v>1598</v>
-      </c>
-      <c r="O11">
-        <v>1690</v>
-      </c>
-      <c r="P11">
-        <v>1797.3149999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>29125</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="4">
         <v>28774</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>28378</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>28672</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>28172</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>26745</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>24647</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="4">
         <v>21903</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="4">
         <v>18362</v>
       </c>
-      <c r="P12">
-        <v>13905.776600000012</v>
-      </c>
+      <c r="P12" s="4">
+        <v>14716</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>12287</v>
+      </c>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="T13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3564,31 +3730,217 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510AEACB-AD86-3849-AEC2-63385AA8D183}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCCDCB3-77E8-7B4A-BE8D-9092E771D83A}">
+  <sheetPr codeName="Feuil10"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="1">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2024</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2025</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510AEACB-AD86-3849-AEC2-63385AA8D183}">
+  <sheetPr codeName="Feuil9"/>
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="78.5" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>63.814999999999998</v>
+        <v>64.463449136231986</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3596,9 +3948,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11">
         <v>6.3500000000000001E-2</v>
@@ -3609,12 +3961,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>212.91</v>
+        <v>204.42404328635027</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3622,12 +3974,12 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="14">
+        <v>990.50158494078698</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3635,7 +3987,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
@@ -3644,7 +3996,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3653,7 +4005,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3662,7 +4014,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3671,7 +4023,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3680,7 +4032,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3689,7 +4041,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3698,7 +4050,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -3707,7 +4059,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3716,260 +4068,77 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCCDCB3-77E8-7B4A-BE8D-9092E771D83A}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2006</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="4">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2019</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2020</v>
-      </c>
-      <c r="B16">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2021</v>
-      </c>
-      <c r="B17">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2023</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2024</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2025</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3977,31 +4146,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28669AAF-4F2E-0747-BEAD-49A29551A5F5}">
+  <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -4015,7 +4185,7 @@
         <v>6.8155806925309093E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -4029,7 +4199,7 @@
         <v>7.8852288558218415E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -4043,7 +4213,7 @@
         <v>7.6978718363801485E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -4057,7 +4227,7 @@
         <v>9.714309874944432E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -4071,7 +4241,7 @@
         <v>9.252744589238358E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -4085,7 +4255,7 @@
         <v>9.0224926425935426E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -4099,7 +4269,7 @@
         <v>8.9337315566447133E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2026</v>
       </c>

--- a/simfin/params/historical_accounts.xlsx
+++ b/simfin/params/historical_accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliennavaux/Dropbox (CEDIA)/simfin/Model/simfin/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE99E06E-EBCE-6F48-87AC-DAF0BBB79487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53233A8C-BD4E-774D-8CE2-644A80A782B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="#,##0\ _$"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ _$"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -355,7 +355,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -374,10 +374,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2976,7 +2972,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,6 +3116,9 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3136,9 +3135,7 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
